--- a/data/raw_data/LichenMossdata.xlsx
+++ b/data/raw_data/LichenMossdata.xlsx
@@ -16,42 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Aspect</t>
-  </si>
-  <si>
-    <t>Total_cover</t>
-  </si>
-  <si>
-    <t>Moss_cover</t>
-  </si>
-  <si>
-    <t>Crustose</t>
-  </si>
-  <si>
-    <t>Fruticose</t>
-  </si>
-  <si>
-    <t>Foliose</t>
-  </si>
-  <si>
-    <t>Colors</t>
-  </si>
-  <si>
-    <t>Aspect_corr</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>Elevation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>total_cover</t>
+  </si>
+  <si>
+    <t>moss_fraction</t>
+  </si>
+  <si>
+    <t>crustose</t>
+  </si>
+  <si>
+    <t>fruticose</t>
+  </si>
+  <si>
+    <t>foliose</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>deviation_north</t>
+  </si>
+  <si>
+    <t>solar_radiation</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>no3</t>
+  </si>
+  <si>
+    <t>no2</t>
+  </si>
+  <si>
+    <t>nh4</t>
+  </si>
+  <si>
+    <t>total_nitrogen</t>
+  </si>
+  <si>
+    <t>po4</t>
   </si>
   <si>
     <t>G_c,O_c,W_c,Bl_f</t>
@@ -60,6 +75,9 @@
     <t>Bl_f,W_c,G_c,O_c</t>
   </si>
   <si>
+    <t>&lt; 1.5</t>
+  </si>
+  <si>
     <t>W_c,G_c</t>
   </si>
   <si>
@@ -130,6 +148,9 @@
   </si>
   <si>
     <t>G_c,W_c,R_c,O_c,Bl_c,W_f,Bl_f</t>
+  </si>
+  <si>
+    <t>&lt; 0.5</t>
   </si>
   <si>
     <t>G_c,W_c,W_c,Bl_c,O_c,W_f</t>
@@ -163,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -172,12 +193,17 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,18 +226,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -430,8 +465,15 @@
   <cols>
     <col customWidth="1" min="1" max="8" width="8.63"/>
     <col customWidth="1" min="9" max="9" width="26.63"/>
-    <col customWidth="1" min="10" max="10" width="10.75"/>
-    <col customWidth="1" min="11" max="26" width="8.63"/>
+    <col customWidth="1" min="10" max="10" width="15.75"/>
+    <col customWidth="1" min="11" max="11" width="13.38"/>
+    <col customWidth="1" min="12" max="12" width="8.63"/>
+    <col customWidth="1" min="13" max="13" width="17.0"/>
+    <col customWidth="1" min="14" max="14" width="12.25"/>
+    <col customWidth="1" min="15" max="15" width="14.75"/>
+    <col customWidth="1" min="16" max="16" width="15.63"/>
+    <col customWidth="1" min="17" max="17" width="12.13"/>
+    <col customWidth="1" min="18" max="26" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -465,42 +507,57 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>4.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>-31.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>260.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>3.0</v>
       </c>
-      <c r="F2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="F2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J44" si="1">MIN(ABS(C2-0), 360-ABS(C2-0))</f>
         <v>100</v>
       </c>
@@ -510,36 +567,37 @@
       <c r="L2" s="3">
         <v>1585.175</v>
       </c>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>5.0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>-6.0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>298.0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>3.0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>5.0</v>
       </c>
-      <c r="F3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="F3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
@@ -549,36 +607,51 @@
       <c r="L3" s="3">
         <v>1586.237</v>
       </c>
+      <c r="M3" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="P3" s="3">
+        <v>204.0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>6.0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>-16.0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>351.0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>17.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>29.0</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="F4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -588,36 +661,51 @@
       <c r="L4" s="3">
         <v>1571.001</v>
       </c>
+      <c r="M4" s="3">
+        <v>18.1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>183.0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>7.0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>-12.0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>129.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="D5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
@@ -627,36 +715,51 @@
       <c r="L5" s="3">
         <v>1570.66</v>
       </c>
+      <c r="M5" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>105.0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>8.0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>-17.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>55.0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>6.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>11.0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="F6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -666,36 +769,37 @@
       <c r="L6" s="3">
         <v>1561.652</v>
       </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>9.0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>-17.0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>321.0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>48.0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>4.0</v>
       </c>
-      <c r="F7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="F7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -705,36 +809,51 @@
       <c r="L7" s="3">
         <v>1372.652</v>
       </c>
+      <c r="M7" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>105.0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>10.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>-23.0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>324.0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>38.0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>89.0</v>
       </c>
-      <c r="F8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="F8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -744,231 +863,321 @@
       <c r="L8" s="3">
         <v>1373.574</v>
       </c>
+      <c r="M8" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="3">
+        <v>66.2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>163.0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>11.0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>8.0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>6.0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>10.0</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="E9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>1562656.0</v>
       </c>
       <c r="L9" s="3">
         <v>1372.404</v>
       </c>
+      <c r="M9" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="3">
+        <v>52.7</v>
+      </c>
+      <c r="P9" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>12.0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>-9.0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>286.0</v>
       </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>1733553.0</v>
       </c>
       <c r="L10" s="3">
         <v>1377.099</v>
       </c>
+      <c r="M10" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>13.0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>-10.0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>12.0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>39.0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>10.0</v>
       </c>
-      <c r="F11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="F11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>1659893.0</v>
       </c>
       <c r="L11" s="3">
         <v>1377.04</v>
       </c>
+      <c r="M11" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="P11" s="3">
+        <v>109.0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>14.0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>-3.0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>16.0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>43.0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>3.0</v>
       </c>
-      <c r="F12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="F12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>1597429.0</v>
       </c>
       <c r="L12" s="3">
         <v>1389.609</v>
       </c>
+      <c r="M12" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3">
+        <v>121.0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>327.0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>15.0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>-12.0</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>23.0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>20.0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>57.0</v>
       </c>
-      <c r="F13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="F13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>1674168.0</v>
       </c>
       <c r="L13" s="3">
         <v>1389.752</v>
       </c>
+      <c r="M13" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="P13" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>16.0</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="2">
         <v>43.0</v>
       </c>
-      <c r="E14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="E14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -978,36 +1187,51 @@
       <c r="L14" s="3">
         <v>1386.437</v>
       </c>
+      <c r="M14" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>171.0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>17.0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>-8.0</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>3.0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>84.0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>14.0</v>
       </c>
-      <c r="F15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="F15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1017,36 +1241,37 @@
       <c r="L15" s="3">
         <v>1385.086</v>
       </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>18.0</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>2.0</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>341.0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>55.0</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="E16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -1056,36 +1281,51 @@
       <c r="L16" s="3">
         <v>1374.581</v>
       </c>
+      <c r="M16" s="3">
+        <v>21.7</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="P16" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>19.0</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="2">
         <v>2.0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>63.0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>4.0</v>
       </c>
-      <c r="F17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="F17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1095,36 +1335,51 @@
       <c r="L17" s="3">
         <v>1375.228</v>
       </c>
+      <c r="M17" s="3">
+        <v>19.4</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="P17" s="3">
+        <v>109.0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>20.0</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>24.0</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="2">
         <v>32.0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>24.0</v>
       </c>
-      <c r="F18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="F18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1134,36 +1389,51 @@
       <c r="L18" s="3">
         <v>1348.179</v>
       </c>
+      <c r="M18" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="3">
+        <v>47.6</v>
+      </c>
+      <c r="P18" s="3">
+        <v>117.0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>21.0</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>-5.0</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="2">
         <v>48.0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>2.0</v>
       </c>
-      <c r="F19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="F19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1173,36 +1443,37 @@
       <c r="L19" s="3">
         <v>1348.361</v>
       </c>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>22.0</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>3.0</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>6.0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>69.0</v>
       </c>
-      <c r="E20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="E20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1212,36 +1483,51 @@
       <c r="L20" s="3">
         <v>1346.627</v>
       </c>
+      <c r="M20" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="P20" s="3">
+        <v>121.0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>23.0</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>-11.0</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>352.0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>21.0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>5.0</v>
       </c>
-      <c r="F21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="F21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1251,36 +1537,51 @@
       <c r="L21" s="3">
         <v>1346.282</v>
       </c>
+      <c r="M21" s="3">
+        <v>17.4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3">
+        <v>68.4</v>
+      </c>
+      <c r="P21" s="3">
+        <v>167.0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>24.0</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="2">
         <v>145.0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>10.0</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="E22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
@@ -1290,36 +1591,51 @@
       <c r="L22" s="3">
         <v>1326.108</v>
       </c>
+      <c r="M22" s="3">
+        <v>9.7</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="3">
+        <v>52.9</v>
+      </c>
+      <c r="P22" s="3">
+        <v>104.0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>25.0</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="2">
         <v>17.0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>49.0</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>7.0</v>
       </c>
-      <c r="F23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="F23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -1329,36 +1645,51 @@
       <c r="L23" s="3">
         <v>1325.846</v>
       </c>
+      <c r="M23" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="P23" s="3">
+        <v>84.0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>26.0</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>-25.0</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>317.0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>5.0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>43.0</v>
       </c>
-      <c r="F24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="F24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -1368,36 +1699,51 @@
       <c r="L24" s="3">
         <v>1566.755</v>
       </c>
+      <c r="M24" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="3">
+        <v>53.7</v>
+      </c>
+      <c r="P24" s="3">
+        <v>136.0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>27.0</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>27.0</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>272.0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>9.0</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>12.0</v>
       </c>
-      <c r="F25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="F25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -1407,36 +1753,51 @@
       <c r="L25" s="3">
         <v>1565.439</v>
       </c>
+      <c r="M25" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="3">
+        <v>92.3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>159.0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>28.0</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>-15.0</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>288.0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>6.0</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>61.0</v>
       </c>
-      <c r="F26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="F26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -1446,36 +1807,51 @@
       <c r="L26" s="3">
         <v>1558.374</v>
       </c>
+      <c r="M26" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="P26" s="3">
+        <v>112.0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>29.0</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>-27.0</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>315.0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>35.0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>39.0</v>
       </c>
-      <c r="F27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="F27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -1485,36 +1861,51 @@
       <c r="L27" s="3">
         <v>1559.997</v>
       </c>
+      <c r="M27" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="3">
+        <v>102.0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>263.0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>30.0</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="2">
         <v>269.0</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>9.0</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="E28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -1524,36 +1915,51 @@
       <c r="L28" s="3">
         <v>1593.772</v>
       </c>
+      <c r="M28" s="3">
+        <v>45.2</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="P28" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>31.0</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>-15.0</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>270.0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>7.0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>55.0</v>
       </c>
-      <c r="F29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="F29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -1563,36 +1969,51 @@
       <c r="L29" s="3">
         <v>1595.137</v>
       </c>
+      <c r="M29" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="3">
+        <v>114.0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>242.0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>32.0</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>-8.0</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>300.0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>43.0</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>17.0</v>
       </c>
-      <c r="F30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="F30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -1602,36 +2023,51 @@
       <c r="L30" s="3">
         <v>1694.085</v>
       </c>
+      <c r="M30" s="3">
+        <v>18.6</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="3">
+        <v>131.0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>282.0</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>33.0</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>-23.0</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>11.0</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>64.0</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>70.0</v>
       </c>
-      <c r="F31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="F31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1641,36 +2077,51 @@
       <c r="L31" s="3">
         <v>1695.117</v>
       </c>
+      <c r="M31" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="3">
+        <v>104.0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>313.0</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>34.0</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>-21.0</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>8.0</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>47.0</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>20.0</v>
       </c>
-      <c r="F32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="F32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1680,36 +2131,51 @@
       <c r="L32" s="3">
         <v>1694.651</v>
       </c>
+      <c r="M32" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="P32" s="3">
+        <v>186.0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>35.0</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>2.0</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>179.0</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>18.0</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>95.0</v>
       </c>
-      <c r="F33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="F33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
@@ -1719,75 +2185,105 @@
       <c r="L33" s="3">
         <v>1694.414</v>
       </c>
+      <c r="M33" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="3">
+        <v>45.7</v>
+      </c>
+      <c r="P33" s="3">
+        <v>112.0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>36.0</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>-27.0</v>
       </c>
-      <c r="C34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="2">
         <v>23.0</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>33.0</v>
       </c>
-      <c r="F34" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="F34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>872144.0</v>
       </c>
       <c r="L34" s="3">
         <v>1695.88</v>
       </c>
+      <c r="M34" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="P34" s="3">
+        <v>119.0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>37.0</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>-23.0</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>3.0</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>28.0</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>24.0</v>
       </c>
-      <c r="F35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="F35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1797,36 +2293,51 @@
       <c r="L35" s="3">
         <v>1696.007</v>
       </c>
+      <c r="M35" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="P35" s="3">
+        <v>143.0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>38.0</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>19.0</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>220.0</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>18.0</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>60.0</v>
       </c>
-      <c r="F36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="F36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
@@ -1836,273 +2347,332 @@
       <c r="L36" s="3">
         <v>1693.174</v>
       </c>
+      <c r="M36" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="3">
+        <v>102.0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>194.0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>39.0</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>13.0</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>283.0</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>8.0</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>35.0</v>
       </c>
-      <c r="F37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="F37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
+      <c r="M37" s="3">
+        <v>19.6</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="3">
+        <v>129.0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>298.0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>40.0</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>-11.0</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>17.0</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>29.0</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>24.0</v>
       </c>
-      <c r="F38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="F38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="M38" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="3">
+        <v>203.0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>349.0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>41.0</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>-25.0</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>349.0</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>39.0</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>38.0</v>
       </c>
-      <c r="F39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="F39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>42.0</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>-24.0</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>111.0</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>4.0</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>3.0</v>
       </c>
-      <c r="F40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="F40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="2">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>43.0</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>-6.0</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>197.0</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>4.0</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>46.0</v>
       </c>
-      <c r="F41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="F41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="2">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>44.0</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>-17.0</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>72.0</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>3.0</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>7.0</v>
       </c>
-      <c r="F42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="F42" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>45.0</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>-15.0</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>27.0</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>38.0</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>12.0</v>
       </c>
-      <c r="F43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="F43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>46.0</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>12.0</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>257.0</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>9.0</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>3.0</v>
       </c>
-      <c r="F44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="F44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="2">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
     <row r="47" ht="14.25" customHeight="1"/>
     <row r="48" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
